--- a/data/trans_media/Q46-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q46-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,05; 81,4</t>
+          <t>77,08; 81,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,74; 84,7</t>
+          <t>77,67; 84,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,88; 80,61</t>
+          <t>75,53; 80,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,73; 82,99</t>
+          <t>75,69; 83,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,6; 67,91</t>
+          <t>63,65; 68,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,99; 68,95</t>
+          <t>63,89; 69,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,89; 70,74</t>
+          <t>65,92; 70,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,04; 70,88</t>
+          <t>67,21; 71,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,57; 74,01</t>
+          <t>70,74; 74,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,65; 76,47</t>
+          <t>71,74; 76,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,21; 74,88</t>
+          <t>71,41; 75,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,73; 75,8</t>
+          <t>71,75; 75,89</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,79; 78,54</t>
+          <t>76,76; 78,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,16; 81,26</t>
+          <t>79,13; 81,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,19; 81,5</t>
+          <t>79,16; 81,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,17; 82,57</t>
+          <t>80,1; 82,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,09; 67,14</t>
+          <t>65,11; 67,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,53; 68,52</t>
+          <t>66,6; 68,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,13; 68,33</t>
+          <t>66,2; 68,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,75; 247,16</t>
+          <t>69,49; 247,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,22; 72,66</t>
+          <t>71,2; 72,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,11; 74,78</t>
+          <t>73,08; 74,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,89; 74,71</t>
+          <t>72,93; 74,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,19; 187,95</t>
+          <t>75,41; 171,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,23; 79,77</t>
+          <t>78,29; 79,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,12; 80,7</t>
+          <t>79,17; 80,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,97; 80,79</t>
+          <t>79,0; 80,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,55; 84,37</t>
+          <t>79,63; 84,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,96; 66,47</t>
+          <t>64,98; 66,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,24</t>
+          <t>67,47; 69,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,44; 69,04</t>
+          <t>67,34; 68,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,39; 70,21</t>
+          <t>67,43; 70,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,72; 72,96</t>
+          <t>71,72; 72,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,49; 74,78</t>
+          <t>73,42; 74,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,36; 74,69</t>
+          <t>73,31; 74,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,64; 77,14</t>
+          <t>73,55; 76,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,38; 78,09</t>
+          <t>76,42; 78,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,21; 80,27</t>
+          <t>78,34; 80,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,29; 80,41</t>
+          <t>78,18; 80,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,96; 81,5</t>
+          <t>78,86; 81,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,86; 66,64</t>
+          <t>64,88; 66,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,4</t>
+          <t>67,56; 69,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,06; 67,98</t>
+          <t>66,07; 68,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,49; 73,73</t>
+          <t>67,51; 74,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,78; 72,18</t>
+          <t>70,74; 72,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,11; 74,61</t>
+          <t>73,1; 74,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,27; 73,99</t>
+          <t>72,28; 73,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,56; 76,33</t>
+          <t>73,52; 76,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,83; 78,36</t>
+          <t>76,74; 78,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,18; 81,01</t>
+          <t>79,13; 80,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,77; 81,5</t>
+          <t>79,69; 81,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,77; 81,66</t>
+          <t>79,8; 81,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,11; 65,77</t>
+          <t>64,09; 65,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,86; 68,55</t>
+          <t>66,89; 68,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,85; 68,64</t>
+          <t>66,76; 68,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,56; 68,24</t>
+          <t>66,71; 68,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,34; 71,51</t>
+          <t>70,26; 71,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73,0; 74,22</t>
+          <t>72,95; 74,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,19; 74,59</t>
+          <t>73,29; 74,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,77; 74,25</t>
+          <t>72,77; 74,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,6; 78,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,33</t>
+          <t>79,41; 80,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,4</t>
+          <t>79,45; 80,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>80,17; 81,84</t>
+          <t>80,23; 82,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,09; 65,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,59; 68,47</t>
+          <t>67,58; 68,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,21; 68,11</t>
+          <t>67,18; 68,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,43; 104,59</t>
+          <t>68,37; 104,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,36; 71,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,19</t>
+          <t>73,5; 74,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,06</t>
+          <t>73,34; 74,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>74,25; 90,34</t>
+          <t>74,24; 91,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q46-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q46-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,08; 81,67</t>
+          <t>76,92; 81,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,67; 84,34</t>
+          <t>77,75; 84,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,53; 80,53</t>
+          <t>75,78; 80,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,65; 68,06</t>
+          <t>63,81; 67,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,89; 69,18</t>
+          <t>64,07; 69,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,92; 70,9</t>
+          <t>66,2; 70,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,74; 74,15</t>
+          <t>70,59; 74,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,74; 76,28</t>
+          <t>71,62; 76,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,41; 75,08</t>
+          <t>71,34; 75,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,76; 78,57</t>
+          <t>76,83; 78,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,13; 81,29</t>
+          <t>79,15; 81,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,16; 81,58</t>
+          <t>79,21; 81,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,11; 67,03</t>
+          <t>65,09; 67,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,6; 68,59</t>
+          <t>66,45; 68,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,2; 68,55</t>
+          <t>66,16; 68,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,2; 72,63</t>
+          <t>71,21; 72,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,08; 74,73</t>
+          <t>73,17; 74,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,93; 74,72</t>
+          <t>72,94; 74,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,29; 79,76</t>
+          <t>78,23; 79,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,17; 80,77</t>
+          <t>79,24; 80,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,0; 80,93</t>
+          <t>78,92; 80,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,98; 66,45</t>
+          <t>64,99; 66,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,17</t>
+          <t>67,5; 69,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,34; 68,99</t>
+          <t>67,47; 69,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,72; 72,97</t>
+          <t>71,76; 73,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,42; 74,74</t>
+          <t>73,41; 74,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,67</t>
+          <t>73,33; 74,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,42; 78,06</t>
+          <t>76,33; 78,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,34; 80,25</t>
+          <t>78,36; 80,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,18; 80,38</t>
+          <t>78,12; 80,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,88; 66,74</t>
+          <t>64,85; 66,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,56; 69,47</t>
+          <t>67,51; 69,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,07; 68,08</t>
+          <t>66,05; 68,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,74; 72,16</t>
+          <t>70,75; 72,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,1; 74,54</t>
+          <t>73,06; 74,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,28; 73,81</t>
+          <t>72,32; 73,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,74; 78,33</t>
+          <t>76,75; 78,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,13; 80,88</t>
+          <t>79,1; 80,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,69; 81,52</t>
+          <t>79,73; 81,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,09; 65,72</t>
+          <t>64,12; 65,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,89; 68,53</t>
+          <t>67,0; 68,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,76; 68,6</t>
+          <t>66,87; 68,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,26; 71,5</t>
+          <t>70,26; 71,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,95; 74,25</t>
+          <t>73,0; 74,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,29; 74,57</t>
+          <t>73,15; 74,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,6; 78,35</t>
+          <t>77,57; 78,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,41; 80,34</t>
+          <t>79,42; 80,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,45; 80,44</t>
+          <t>79,46; 80,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,09; 65,93</t>
+          <t>65,13; 65,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,58; 68,48</t>
+          <t>67,53; 68,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,18; 68,14</t>
+          <t>67,25; 68,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>71,36; 71,99</t>
+          <t>71,36; 72,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,22</t>
+          <t>73,51; 74,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,34; 74,05</t>
+          <t>73,32; 74,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
